--- a/biology/Zoologie/Breviceps/Breviceps.xlsx
+++ b/biology/Zoologie/Breviceps/Breviceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Breviceps est un genre d'amphibiens de la famille des Brevicipitidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Breviceps est un genre d'amphibiens de la famille des Brevicipitidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 19 espèces de ce genre se rencontrent en Afrique de l'Est et en Afrique australe dans les régions arides et semi-arides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 19 espèces de ce genre se rencontrent en Afrique de l'Est et en Afrique australe dans les régions arides et semi-arides.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (15 novembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (15 novembre 2020) :
 Breviceps acutirostris Poynton, 1963
 Breviceps adspersus Peters, 1882
 Breviceps bagginsi Minter, 2003
 Breviceps branchi Channing, 2012
-Breviceps carruthersi Minter, Netherlands &amp; Du Preez, 2017[3]
+Breviceps carruthersi Minter, Netherlands &amp; Du Preez, 2017
 Breviceps fichus Channing &amp; Minter, 2004
 Breviceps fuscus Hewitt, 1925
 Breviceps gibbosus (Linnaeus, 1758)
@@ -557,8 +573,8 @@
 Breviceps montanus Power, 1926
 Breviceps mossambicus Peters, 1854
 Breviceps namaquensis Power, 1926
-Breviceps ombelanonga Nielsen et al., 2020[4]
-Breviceps passmorei Minter, Netherlands &amp; Du Preez, 2017[3]
+Breviceps ombelanonga Nielsen et al., 2020
+Breviceps passmorei Minter, Netherlands &amp; Du Preez, 2017
 Breviceps poweri Parker, 1934
 Breviceps rosei Power, 1926
 Breviceps sopranus Minter, 2003
@@ -591,7 +607,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Merrem, 1820 : Versuch eines Systems der Amphibien I (Tentamen Systematis Amphibiorum). J. C. Krieger, Marburg, p. 1-191 (texte intégral).</t>
         </is>
